--- a/Recruitment Agency.xlsx
+++ b/Recruitment Agency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addison Loo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF6C11-145F-4323-A162-CFBF85F7925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F10086-491E-428D-8DC2-BCCE59550B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF0855CE-883C-4B1C-B75D-09CD0B5FEE04}"/>
   </bookViews>
@@ -200,9 +200,6 @@
     <t>Recruiter Count</t>
   </si>
   <si>
-    <t xml:space="preserve">	Johor Bahru, Johor</t>
-  </si>
-  <si>
     <t>Local</t>
   </si>
   <si>
@@ -351,6 +348,9 @@
   </si>
   <si>
     <t>Payroll Outsourcing, HR Outsourcing, Workforce Outsourcing, Training</t>
+  </si>
+  <si>
+    <t>Johor Bahru, Johor</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,13 +793,13 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
         <v>53</v>
@@ -808,7 +808,7 @@
         <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -822,27 +822,27 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -851,56 +851,56 @@
         <v>1987</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>2011</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -909,22 +909,22 @@
         <v>2011</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -938,22 +938,22 @@
         <v>2006</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -967,22 +967,22 @@
         <v>1996</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -996,22 +996,22 @@
         <v>1994</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1025,22 +1025,22 @@
         <v>1997</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1054,22 +1054,22 @@
         <v>2014</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1083,22 +1083,22 @@
         <v>2012</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1112,22 +1112,22 @@
         <v>2014</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1141,22 +1141,22 @@
         <v>2022</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1170,27 +1170,27 @@
         <v>2008</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
@@ -1199,22 +1199,22 @@
         <v>2014</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1228,22 +1228,22 @@
         <v>2014</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1257,27 +1257,27 @@
         <v>1993</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -1286,22 +1286,22 @@
         <v>1999</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1315,22 +1315,22 @@
         <v>2003</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1344,22 +1344,22 @@
         <v>2017</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1373,22 +1373,22 @@
         <v>2010</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1402,22 +1402,22 @@
         <v>2014</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1431,22 +1431,22 @@
         <v>2002</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1460,22 +1460,22 @@
         <v>1999</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1489,22 +1489,22 @@
         <v>2006</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1518,22 +1518,22 @@
         <v>2019</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1547,22 +1547,22 @@
         <v>2007</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1576,27 +1576,27 @@
         <v>2010</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>50</v>
@@ -1605,22 +1605,22 @@
         <v>2016</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Recruitment Agency.xlsx
+++ b/Recruitment Agency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Addison Loo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F10086-491E-428D-8DC2-BCCE59550B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BAB83D-36E5-4495-BE4C-84441FD87A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF0855CE-883C-4B1C-B75D-09CD0B5FEE04}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
